--- a/Data/Meta.xlsx
+++ b/Data/Meta.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mhachaichi\Documents\Virtual_Water_Project\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EB03495-3BF1-4197-9119-F7833EA9481A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD57D7E9-F943-4FF1-97A4-15E1B07C3EC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="350" windowWidth="19420" windowHeight="10560" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3020" yWindow="2500" windowWidth="14400" windowHeight="7460" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -466,7 +466,7 @@
   <dimension ref="A1:C27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/Data/Meta.xlsx
+++ b/Data/Meta.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mhachaichi\Documents\Virtual_Water_Project\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD57D7E9-F943-4FF1-97A4-15E1B07C3EC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28946353-3E2A-48B9-A562-C5C7E5DDDC59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3020" yWindow="2500" windowWidth="14400" windowHeight="7460" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="350" windowWidth="19420" windowHeight="10560" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="37">
   <si>
     <t>Eora_classification</t>
   </si>
@@ -134,6 +134,9 @@
   </si>
   <si>
     <t>Re-export &amp; Re-import</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Energy </t>
   </si>
 </sst>
 </file>
@@ -465,11 +468,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2F95F9A-872A-4A62-938B-EF17B44FD883}">
   <dimension ref="A1:C27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="24.90625" customWidth="1"/>
+    <col min="2" max="2" width="25.36328125" customWidth="1"/>
+    <col min="3" max="3" width="23.1796875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
@@ -619,7 +627,7 @@
         <v>21</v>
       </c>
       <c r="B14" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="C14">
         <v>1</v>

--- a/Data/Meta.xlsx
+++ b/Data/Meta.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mhachaichi\Documents\Virtual_Water_Project\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28946353-3E2A-48B9-A562-C5C7E5DDDC59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A82EB11F-9761-48F2-BE40-7D599C68BF19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="350" windowWidth="19420" windowHeight="10560" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="36">
   <si>
     <t>Eora_classification</t>
   </si>
@@ -104,9 +104,6 @@
   </si>
   <si>
     <t>Wholesale Trade</t>
-  </si>
-  <si>
-    <t>Business</t>
   </si>
   <si>
     <t>Retail Trade</t>
@@ -468,7 +465,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2F95F9A-872A-4A62-938B-EF17B44FD883}">
   <dimension ref="A1:C27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
@@ -627,7 +624,7 @@
         <v>21</v>
       </c>
       <c r="B14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C14">
         <v>1</v>
@@ -660,7 +657,7 @@
         <v>25</v>
       </c>
       <c r="B17" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C17">
         <v>3</v>
@@ -668,10 +665,10 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B18" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C18">
         <v>3</v>
@@ -679,7 +676,7 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B19" t="s">
         <v>20</v>
@@ -701,7 +698,7 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B21" t="s">
         <v>20</v>
@@ -712,7 +709,7 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B22" t="s">
         <v>20</v>
@@ -723,7 +720,7 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B23" t="s">
         <v>20</v>
@@ -734,7 +731,7 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B24" t="s">
         <v>20</v>
@@ -745,7 +742,7 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B25" t="s">
         <v>7</v>
@@ -756,10 +753,10 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B26" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C26">
         <v>21</v>
@@ -767,7 +764,7 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B27" t="s">
         <v>7</v>

--- a/Data/Meta.xlsx
+++ b/Data/Meta.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mhachaichi\Documents\Virtual_Water_Project\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A82EB11F-9761-48F2-BE40-7D599C68BF19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA494CFE-E872-43F1-B481-8C8035BEF387}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="350" windowWidth="19420" windowHeight="10560" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="31080" yWindow="3600" windowWidth="12870" windowHeight="11370" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -97,9 +97,6 @@
     <t>Construction</t>
   </si>
   <si>
-    <t xml:space="preserve">Buildings </t>
-  </si>
-  <si>
     <t>Maintenance and Repair</t>
   </si>
   <si>
@@ -134,6 +131,9 @@
   </si>
   <si>
     <t xml:space="preserve">Energy </t>
+  </si>
+  <si>
+    <t>Hotels &amp; Restaurants</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -465,18 +465,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2F95F9A-872A-4A62-938B-EF17B44FD883}">
   <dimension ref="A1:C27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.90625" customWidth="1"/>
-    <col min="2" max="2" width="25.36328125" customWidth="1"/>
-    <col min="3" max="3" width="23.1796875" customWidth="1"/>
+    <col min="1" max="1" width="24.85546875" customWidth="1"/>
+    <col min="2" max="2" width="25.42578125" customWidth="1"/>
+    <col min="3" max="3" width="23.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -487,7 +487,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -498,7 +498,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -509,7 +509,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -520,7 +520,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -531,7 +531,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -542,7 +542,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -553,7 +553,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -564,7 +564,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -575,7 +575,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>14</v>
       </c>
@@ -586,7 +586,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>16</v>
       </c>
@@ -597,7 +597,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>18</v>
       </c>
@@ -608,7 +608,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>19</v>
       </c>
@@ -619,31 +619,31 @@
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>21</v>
       </c>
       <c r="B14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C14">
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C15">
         <v>23</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B16" t="s">
         <v>20</v>
@@ -652,9 +652,9 @@
         <v>21</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B17" t="s">
         <v>20</v>
@@ -663,9 +663,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B18" t="s">
         <v>20</v>
@@ -674,18 +674,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B19" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="C19">
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>17</v>
       </c>
@@ -696,9 +696,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B21" t="s">
         <v>20</v>
@@ -707,9 +707,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B22" t="s">
         <v>20</v>
@@ -718,9 +718,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B23" t="s">
         <v>20</v>
@@ -729,9 +729,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B24" t="s">
         <v>20</v>
@@ -740,9 +740,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B25" t="s">
         <v>7</v>
@@ -751,23 +751,23 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
+        <v>32</v>
+      </c>
+      <c r="B26" t="s">
+        <v>32</v>
+      </c>
+      <c r="C26">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
         <v>33</v>
       </c>
-      <c r="B26" t="s">
-        <v>33</v>
-      </c>
-      <c r="C26">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A27" t="s">
-        <v>34</v>
-      </c>
       <c r="B27" t="s">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="C27">
         <v>21</v>
